--- a/ScratchGroskillBatch3/src/main/java/TestData/TestData31stJuly.xlsx
+++ b/ScratchGroskillBatch3/src/main/java/TestData/TestData31stJuly.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>userid</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>32158</t>
+  </si>
+  <si>
+    <t>52618</t>
+  </si>
+  <si>
+    <t>99197</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
